--- a/Prophecies/Assets/Creature Encounters.xlsx
+++ b/Prophecies/Assets/Creature Encounters.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lloyd\dev\Project GW\Prophecies\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52684AE-04A9-432B-B8C5-7FBBEB68FE07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D4B94F-828D-4509-9764-BFEB283F0627}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" activeTab="1" xr2:uid="{D16AB69B-4141-4749-9CB7-34C19523FBAA}"/>
+    <workbookView xWindow="1886" yWindow="1886" windowWidth="19285" windowHeight="12120" firstSheet="2" activeTab="3" xr2:uid="{D16AB69B-4141-4749-9CB7-34C19523FBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ascalon" sheetId="1" r:id="rId1"/>
     <sheet name="Crystal Desert" sheetId="2" r:id="rId2"/>
     <sheet name="Kryta" sheetId="4" r:id="rId3"/>
+    <sheet name="Maguuma Jungle" sheetId="5" r:id="rId4"/>
+    <sheet name="Maguuma Jungle (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="175">
   <si>
     <t>Eastern Frontier</t>
   </si>
@@ -288,6 +290,276 @@
   </si>
   <si>
     <t>Forgotten Avenger</t>
+  </si>
+  <si>
+    <t>Cursed Lands</t>
+  </si>
+  <si>
+    <t>Kessex Peak</t>
+  </si>
+  <si>
+    <t>Majesty's Rest</t>
+  </si>
+  <si>
+    <t>Nebo Terrace</t>
+  </si>
+  <si>
+    <t>North Kryta Province</t>
+  </si>
+  <si>
+    <t>Scoundrel's Rise</t>
+  </si>
+  <si>
+    <t>Stingray Strand</t>
+  </si>
+  <si>
+    <t>Talmark Wilderness</t>
+  </si>
+  <si>
+    <t>Tears of the Fallen</t>
+  </si>
+  <si>
+    <t>The Black Curtain</t>
+  </si>
+  <si>
+    <t>Twin Serpent Lakes</t>
+  </si>
+  <si>
+    <t>Watchtower Coast</t>
+  </si>
+  <si>
+    <t>D'Alessio Seaboard</t>
+  </si>
+  <si>
+    <t>Divinity Coast</t>
+  </si>
+  <si>
+    <t>Gates of Kryta</t>
+  </si>
+  <si>
+    <t>Riverside Province</t>
+  </si>
+  <si>
+    <t>Sanctum Cay</t>
+  </si>
+  <si>
+    <t>Wraith</t>
+  </si>
+  <si>
+    <t>Phantoms</t>
+  </si>
+  <si>
+    <t>Smoke Phantom</t>
+  </si>
+  <si>
+    <t>Oakheart</t>
+  </si>
+  <si>
+    <t>Ancient Oakheart</t>
+  </si>
+  <si>
+    <t>Spined Aloe</t>
+  </si>
+  <si>
+    <t>Reed Stalker</t>
+  </si>
+  <si>
+    <t>Skeletons</t>
+  </si>
+  <si>
+    <t>Hellhound</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Zombies</t>
+  </si>
+  <si>
+    <t>Damned</t>
+  </si>
+  <si>
+    <t>Executioner</t>
+  </si>
+  <si>
+    <t>Ghoul</t>
+  </si>
+  <si>
+    <t>Necrid Horseman</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Ettin</t>
+  </si>
+  <si>
+    <t>Mergoyle</t>
+  </si>
+  <si>
+    <t>Henchman</t>
+  </si>
+  <si>
+    <t>Lightning Drake</t>
+  </si>
+  <si>
+    <t>Hill Giant</t>
+  </si>
+  <si>
+    <t>Cult of Verata</t>
+  </si>
+  <si>
+    <t>Bandits</t>
+  </si>
+  <si>
+    <t>Forest Minotaur</t>
+  </si>
+  <si>
+    <t>Trolls</t>
+  </si>
+  <si>
+    <t>Fen Troll</t>
+  </si>
+  <si>
+    <t>Arachnids</t>
+  </si>
+  <si>
+    <t>Maguuma Spider</t>
+  </si>
+  <si>
+    <t>Fevered Devourer</t>
+  </si>
+  <si>
+    <t>Thorn Devourer</t>
+  </si>
+  <si>
+    <t>Nightmares</t>
+  </si>
+  <si>
+    <t>Fog Nightmare</t>
+  </si>
+  <si>
+    <t>Entangling Root</t>
+  </si>
+  <si>
+    <t>Rotting Dragon</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>Inferno Imp</t>
+  </si>
+  <si>
+    <t>Skale</t>
+  </si>
+  <si>
+    <t>Bog Skale</t>
+  </si>
+  <si>
+    <t>Bog Skale Icetooth</t>
+  </si>
+  <si>
+    <t>Caromi Tengu</t>
+  </si>
+  <si>
+    <t>Tengu</t>
+  </si>
+  <si>
+    <t>Fire Imp</t>
+  </si>
+  <si>
+    <t>White Mantle</t>
+  </si>
+  <si>
+    <t>Bone Dragon</t>
+  </si>
+  <si>
+    <t>Bog Skale Blighter</t>
+  </si>
+  <si>
+    <t>Grand Drake</t>
+  </si>
+  <si>
+    <t>Aurora Glade</t>
+  </si>
+  <si>
+    <t>Bloodstone Fen</t>
+  </si>
+  <si>
+    <t>The Wilds</t>
+  </si>
+  <si>
+    <t>Dry Top</t>
+  </si>
+  <si>
+    <t>Ettin's Back</t>
+  </si>
+  <si>
+    <t>Mamnoon Lagoon</t>
+  </si>
+  <si>
+    <t>Reed Bog</t>
+  </si>
+  <si>
+    <t>Sage Lands</t>
+  </si>
+  <si>
+    <t>Silverwood</t>
+  </si>
+  <si>
+    <t>Tangle Root</t>
+  </si>
+  <si>
+    <t>The Falls</t>
+  </si>
+  <si>
+    <t>Root Behemoth</t>
+  </si>
+  <si>
+    <t>Humans</t>
+  </si>
+  <si>
+    <t>Thorn Stalker</t>
+  </si>
+  <si>
+    <t>Wind Rider</t>
+  </si>
+  <si>
+    <t>Moss Scarab</t>
+  </si>
+  <si>
+    <t>Jungle Troll</t>
+  </si>
+  <si>
+    <t>Demons</t>
+  </si>
+  <si>
+    <t>Arm of Insanity</t>
+  </si>
+  <si>
+    <t>Blade of Corruption</t>
+  </si>
+  <si>
+    <t>Maguuma</t>
+  </si>
+  <si>
+    <t>Warthog</t>
+  </si>
+  <si>
+    <t>Life Pod</t>
+  </si>
+  <si>
+    <t>Jungle Skale</t>
+  </si>
+  <si>
+    <t>Redwood Shepherd</t>
+  </si>
+  <si>
+    <t>Entangling Roots</t>
   </si>
 </sst>
 </file>
@@ -362,7 +634,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1237,7 +1523,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L21">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1250,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BB129B-879A-49CF-87DF-0152DB6F0911}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -2795,7 +3081,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:M98">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2806,10 +3092,2246 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436438FF-392F-4562-91BA-CDC3363E9EDA}">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="W9" sqref="W9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.61328125" customWidth="1"/>
+    <col min="2" max="2" width="14.921875" customWidth="1"/>
+    <col min="3" max="19" width="3.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="102" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="4"/>
+      <c r="B102" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:S39">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD283184-2FDA-4493-9A5E-A2138BCB56F8}">
+  <dimension ref="A1:M90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2819,7 +5341,7 @@
     <col min="3" max="13" width="3.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="83.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="90" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2827,37 +5349,1388 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>52</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G12:M13 C14:M90 C2:M11">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FFFA11-566A-45D5-B2A5-1050D3BEF212}">
+  <dimension ref="A1:N138"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.61328125" customWidth="1"/>
+    <col min="2" max="2" width="14.921875" customWidth="1"/>
+    <col min="3" max="13" width="3.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="90" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -2865,27 +6738,27 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2905,70 +6778,65 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
@@ -2986,68 +6854,80 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -3065,35 +6945,31 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3106,7 +6982,9 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3135,17 +7013,11 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3154,21 +7026,30 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3177,23 +7058,27 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
@@ -3211,7 +7096,9 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3226,46 +7113,23 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3275,79 +7139,44 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3374,33 +7203,21 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
@@ -3416,10 +7233,11 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3435,18 +7253,12 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3473,58 +7285,33 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
@@ -3540,39 +7327,24 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
@@ -3605,31 +7377,25 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
@@ -3645,9 +7411,12 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="B40" s="5"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3663,21 +7432,15 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3700,38 +7463,26 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -3740,19 +7491,11 @@
         <v>12</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
@@ -3761,17 +7504,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3780,48 +7519,28 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3843,8 +7562,10 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" s="4"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3857,45 +7578,31 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3904,8 +7611,10 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3919,7 +7628,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
@@ -3934,7 +7643,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
@@ -3949,9 +7658,13 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3962,99 +7675,177 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="B56" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="J56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="1"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
+      <c r="M60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
@@ -4069,22 +7860,40 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="J63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
@@ -4115,7 +7924,9 @@
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -4627,97 +8438,337 @@
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
     </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C26:M122 C2:M24">
+  <conditionalFormatting sqref="C2:M32 C34:M55 G56:M57 C58:M138">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>

--- a/Prophecies/Assets/Creature Encounters.xlsx
+++ b/Prophecies/Assets/Creature Encounters.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lloyd\dev\Project GW\Prophecies\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D4B94F-828D-4509-9764-BFEB283F0627}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67577C14-CA46-4747-A86C-CA4E59AA3366}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="19285" windowHeight="12120" firstSheet="2" activeTab="3" xr2:uid="{D16AB69B-4141-4749-9CB7-34C19523FBAA}"/>
+    <workbookView xWindow="1509" yWindow="3240" windowWidth="19285" windowHeight="12120" xr2:uid="{D16AB69B-4141-4749-9CB7-34C19523FBAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ascalon" sheetId="1" r:id="rId1"/>
-    <sheet name="Crystal Desert" sheetId="2" r:id="rId2"/>
-    <sheet name="Kryta" sheetId="4" r:id="rId3"/>
-    <sheet name="Maguuma Jungle" sheetId="5" r:id="rId4"/>
-    <sheet name="Maguuma Jungle (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="Campaign - Prophecies" sheetId="10" r:id="rId1"/>
+    <sheet name="Ascalon" sheetId="1" r:id="rId2"/>
+    <sheet name="Crystal Desert" sheetId="2" r:id="rId3"/>
+    <sheet name="Kryta" sheetId="4" r:id="rId4"/>
+    <sheet name="Maguuma Jungle" sheetId="5" r:id="rId5"/>
+    <sheet name="Northern Shiverpeaks" sheetId="8" r:id="rId6"/>
+    <sheet name="Ring of Fire Islands" sheetId="6" r:id="rId7"/>
+    <sheet name="Southern Shiverpeaks" sheetId="7" r:id="rId8"/>
+    <sheet name="Extra" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Campaign - Prophecies'!$A$1:$B$155</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="268">
   <si>
     <t>Eastern Frontier</t>
   </si>
@@ -560,6 +567,285 @@
   </si>
   <si>
     <t>Entangling Roots</t>
+  </si>
+  <si>
+    <t>Abaddon's Mouth</t>
+  </si>
+  <si>
+    <t>Hell's Precipice</t>
+  </si>
+  <si>
+    <t>Perdition Rock</t>
+  </si>
+  <si>
+    <t>Ring of Fire</t>
+  </si>
+  <si>
+    <t>Flesh Golem</t>
+  </si>
+  <si>
+    <t>Crag Behemoth</t>
+  </si>
+  <si>
+    <t>Dryder</t>
+  </si>
+  <si>
+    <t>Dark Flame Dryder</t>
+  </si>
+  <si>
+    <t>Seal Guard</t>
+  </si>
+  <si>
+    <t>Jade Constructs</t>
+  </si>
+  <si>
+    <t>Jade Armor</t>
+  </si>
+  <si>
+    <t>Jade Bow</t>
+  </si>
+  <si>
+    <t>Jade Seal</t>
+  </si>
+  <si>
+    <t>Mahgo Hydra</t>
+  </si>
+  <si>
+    <t>Mursaat</t>
+  </si>
+  <si>
+    <t>Mursaat…</t>
+  </si>
+  <si>
+    <t>Titans</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Armageddon Lord</t>
+  </si>
+  <si>
+    <t>Burning Titan</t>
+  </si>
+  <si>
+    <t>Spark of the Titans</t>
+  </si>
+  <si>
+    <t>Risen Ashen Hulk</t>
+  </si>
+  <si>
+    <t>Hand of the Titans</t>
+  </si>
+  <si>
+    <t>Fist of the Titans</t>
+  </si>
+  <si>
+    <t>Portal Wraith</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t>Undead Lich</t>
+  </si>
+  <si>
+    <t>Ettins</t>
+  </si>
+  <si>
+    <t>Igneous Ettin</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Breeze Keeper</t>
+  </si>
+  <si>
+    <t>Lava Spitter</t>
+  </si>
+  <si>
+    <t>Imps</t>
+  </si>
+  <si>
+    <t>Lava Imp</t>
+  </si>
+  <si>
+    <t>Nightmare (RoF Variant)</t>
+  </si>
+  <si>
+    <t>Anvil Rock</t>
+  </si>
+  <si>
+    <t>Borlis Pass</t>
+  </si>
+  <si>
+    <t>Deldrimor Bowl</t>
+  </si>
+  <si>
+    <t>Griffon's Mouth</t>
+  </si>
+  <si>
+    <t>Iron Horse Mine</t>
+  </si>
+  <si>
+    <t>Traveler's Vale</t>
+  </si>
+  <si>
+    <t>Snow Wolf</t>
+  </si>
+  <si>
+    <t>Shiverpeak</t>
+  </si>
+  <si>
+    <t>Dryders</t>
+  </si>
+  <si>
+    <t>Frostfire Dryder</t>
+  </si>
+  <si>
+    <t>Dwarves</t>
+  </si>
+  <si>
+    <t>Stone Summit</t>
+  </si>
+  <si>
+    <t>Elementals</t>
+  </si>
+  <si>
+    <t>Ice Golem</t>
+  </si>
+  <si>
+    <t>Snow Ettin</t>
+  </si>
+  <si>
+    <t>Juniper Bark</t>
+  </si>
+  <si>
+    <t>Dreadnought's Drift</t>
+  </si>
+  <si>
+    <t>Frozen Forest</t>
+  </si>
+  <si>
+    <t>Grenth's Footprint</t>
+  </si>
+  <si>
+    <t>Ice Caves of Sorrow</t>
+  </si>
+  <si>
+    <t>Ice Floe</t>
+  </si>
+  <si>
+    <t>Icedome</t>
+  </si>
+  <si>
+    <t>Iron Mines of Moladune</t>
+  </si>
+  <si>
+    <t>Lornar's Pass</t>
+  </si>
+  <si>
+    <t>Mineral Springs</t>
+  </si>
+  <si>
+    <t>Snake Dance</t>
+  </si>
+  <si>
+    <t>Sorrow's Furnace</t>
+  </si>
+  <si>
+    <t>Spearhead Peak</t>
+  </si>
+  <si>
+    <t>Talus Chute</t>
+  </si>
+  <si>
+    <t>Tasca's Demise</t>
+  </si>
+  <si>
+    <t>Thunderhead Keep</t>
+  </si>
+  <si>
+    <t>Witman's Folly</t>
+  </si>
+  <si>
+    <t>Siege Ice Golem</t>
+  </si>
+  <si>
+    <t>Tundra Giant</t>
+  </si>
+  <si>
+    <t>Blessed Griffon</t>
+  </si>
+  <si>
+    <t>Azure Shadow</t>
+  </si>
+  <si>
+    <t>Frost Wurm</t>
+  </si>
+  <si>
+    <t>Black Bear</t>
+  </si>
+  <si>
+    <t>Ice Imp</t>
+  </si>
+  <si>
+    <t>Pinesoul</t>
+  </si>
+  <si>
+    <t>Avicara</t>
+  </si>
+  <si>
+    <t>Mountain Troll</t>
+  </si>
+  <si>
+    <t>Eidolon</t>
+  </si>
+  <si>
+    <t>Grawl Crone</t>
+  </si>
+  <si>
+    <t>Dark Titan</t>
+  </si>
+  <si>
+    <t>Frost Titan</t>
+  </si>
+  <si>
+    <t>Icy Brute</t>
+  </si>
+  <si>
+    <t>Titan's Heart</t>
+  </si>
+  <si>
+    <t>Titan's Malice</t>
+  </si>
+  <si>
+    <t>Dredge</t>
+  </si>
+  <si>
+    <t>Dredge Brute</t>
+  </si>
+  <si>
+    <t>Dredge Scout</t>
+  </si>
+  <si>
+    <t>Dredge Shaman</t>
+  </si>
+  <si>
+    <t>Enslaved Ettin</t>
+  </si>
+  <si>
+    <t>Furnace Guardian</t>
+  </si>
+  <si>
+    <t>Elder Wolf</t>
+  </si>
+  <si>
+    <t>Rock Ice</t>
+  </si>
+  <si>
+    <t>Enslaved Frost Giant</t>
   </si>
 </sst>
 </file>
@@ -619,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -630,11 +916,75 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -979,11 +1329,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C7CE51-2242-483A-8909-7E08960141B6}">
+  <dimension ref="A1:B155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.53515625" customWidth="1"/>
+    <col min="2" max="2" width="18.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B155" xr:uid="{CD67217F-00EB-4BEB-9BBB-55D566AA30F0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B155">
+      <sortCondition ref="A1:A155"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE19CD1-D18B-4A2C-9480-A7C25D618C4A}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1523,7 +3138,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L21">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1532,12 +3147,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BB129B-879A-49CF-87DF-0152DB6F0911}">
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="B27" sqref="A2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3081,7 +4696,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:M98">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3090,12 +4705,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436438FF-392F-4562-91BA-CDC3363E9EDA}">
   <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="B39" sqref="A2:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5317,7 +6932,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:S39">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5326,12 +6941,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD283184-2FDA-4493-9A5E-A2138BCB56F8}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6668,7 +8283,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G12:M13 C14:M90 C2:M11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6677,22 +8292,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FFFA11-566A-45D5-B2A5-1050D3BEF212}">
-  <dimension ref="A1:N138"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C62C9-4AA9-45F6-BA19-2BDE2A69032A}">
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B9" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.61328125" customWidth="1"/>
     <col min="2" max="2" width="14.921875" customWidth="1"/>
-    <col min="3" max="13" width="3.07421875" customWidth="1"/>
+    <col min="3" max="12" width="3.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="90" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="79.75" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -6700,73 +8315,2507 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>170</v>
+        <v>216</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:L81">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FFFA11-566A-45D5-B2A5-1050D3BEF212}">
+  <dimension ref="A1:M100"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="A2:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.61328125" customWidth="1"/>
+    <col min="2" max="2" width="14.921875" customWidth="1"/>
+    <col min="3" max="12" width="3.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="88.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:L100">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B7D71E-1FC3-44F4-8F17-5F0FCEEBE39F}">
+  <dimension ref="A1:S106"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="A2:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.61328125" customWidth="1"/>
+    <col min="2" max="2" width="14.921875" customWidth="1"/>
+    <col min="3" max="18" width="3.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="117.9" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -6778,10 +10827,19 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -6789,43 +10847,1940 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="4"/>
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="4"/>
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="4"/>
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="4"/>
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="4"/>
+      <c r="B106" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:N3 K4:N4 N26 N34 M21:N23 C17:L106 C13:L13 C14:M15 C5:N12 O2:R44">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:J11">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:L16">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J4">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340CF16B-1E28-4074-9C35-8A2073C88898}">
+  <dimension ref="A1:S162"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.61328125" customWidth="1"/>
+    <col min="2" max="2" width="14.921875" customWidth="1"/>
+    <col min="3" max="18" width="3.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="117.9" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="1"/>
@@ -6839,8 +12794,13 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
@@ -6855,37 +12815,36 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
@@ -6899,8 +12858,13 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
@@ -6909,27 +12873,22 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
@@ -6943,8 +12902,13 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
@@ -6958,8 +12922,13 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>166</v>
       </c>
@@ -6967,9 +12936,7 @@
         <v>167</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6979,8 +12946,13 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>168</v>
@@ -6996,8 +12968,13 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1"/>
@@ -7011,8 +12988,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
@@ -7027,60 +13009,58 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1"/>
@@ -7094,8 +13074,13 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -7111,8 +13096,13 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
@@ -7126,10 +13116,19 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -7140,11 +13139,20 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -7155,13 +13163,20 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5"/>
+      <c r="M23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -7172,9 +13187,16 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1"/>
@@ -7188,8 +13210,13 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="1"/>
@@ -7203,23 +13230,65 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1"/>
@@ -7233,12 +13302,19 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7246,15 +13322,27 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -7266,25 +13354,61 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="1"/>
@@ -7299,8 +13423,14 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -7312,9 +13442,16 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B34" s="5"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -7328,11 +13465,13 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -7346,8 +13485,12 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1"/>
@@ -7362,8 +13505,12 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1"/>
@@ -7378,12 +13525,18 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="5"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>263</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -7394,10 +13547,16 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="1"/>
@@ -7412,10 +13571,14 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="1"/>
@@ -7429,11 +13592,14 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -7446,8 +13612,13 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1"/>
@@ -7461,35 +13632,42 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -7498,13 +13676,19 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
+      <c r="M44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -7516,10 +13700,18 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -7530,26 +13722,56 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
+      <c r="O47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -7557,16 +13779,25 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="5"/>
+      <c r="O48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -7574,29 +13805,55 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="O49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="L50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
@@ -7609,12 +13866,13 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -7626,24 +13884,42 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
@@ -7656,15 +13932,14 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>174</v>
-      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -7675,225 +13950,208 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" t="s">
-        <v>173</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
@@ -7907,8 +14165,13 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
@@ -7921,11 +14184,14 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
@@ -7938,69 +14204,92 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A69" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R69" s="1"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
@@ -8013,29 +14302,50 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -8043,14 +14353,14 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -8059,8 +14369,13 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
@@ -8073,11 +14388,18 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A76" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -8088,11 +14410,18 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -8103,11 +14432,18 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -8118,9 +14454,12 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="1"/>
@@ -8133,24 +14472,48 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A80" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="J80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="1"/>
@@ -8163,11 +14526,18 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A82" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -8176,13 +14546,20 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="K82" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -8191,13 +14568,20 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="K83" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -8206,13 +14590,20 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
+      <c r="K84" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -8221,13 +14612,20 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="K85" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -8236,26 +14634,50 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+      <c r="K86" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A87" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1"/>
@@ -8268,9 +14690,12 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1"/>
@@ -8283,24 +14708,49 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="J90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="1"/>
@@ -8313,9 +14763,12 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="1"/>
@@ -8328,9 +14781,12 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="1"/>
@@ -8343,9 +14799,12 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="1"/>
@@ -8358,9 +14817,12 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="1"/>
@@ -8373,9 +14835,12 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="1"/>
@@ -8388,9 +14853,12 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1"/>
@@ -8403,9 +14871,12 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="1"/>
@@ -8418,9 +14889,12 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="1"/>
@@ -8433,9 +14907,12 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="1"/>
@@ -8448,9 +14925,12 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="1"/>
@@ -8463,9 +14943,8 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="1"/>
@@ -8478,9 +14957,8 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="1"/>
@@ -8493,9 +14971,8 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="1"/>
@@ -8508,9 +14985,8 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="1"/>
@@ -8523,9 +14999,8 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1"/>
@@ -8538,9 +15013,8 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="1"/>
@@ -8553,9 +15027,8 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="1"/>
@@ -8568,9 +15041,8 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="1"/>
@@ -8583,9 +15055,8 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="1"/>
@@ -8598,9 +15069,8 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="1"/>
@@ -8613,9 +15083,8 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="1"/>
@@ -8628,9 +15097,8 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="1"/>
@@ -8643,9 +15111,8 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="1"/>
@@ -8658,9 +15125,8 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="1"/>
@@ -8673,102 +15139,452 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="4"/>
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="4"/>
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" s="4"/>
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" s="4"/>
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" s="4"/>
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" s="4"/>
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" s="4"/>
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" s="4"/>
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" s="4"/>
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" s="4"/>
+      <c r="B162" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M32 C34:M55 G56:M57 C58:M138">
+  <conditionalFormatting sqref="F73:L73 C75:L162 C2:N3 C43:L46 C69:L72 C48:L57 M44:M46 K4:N4 C5:N42 C59:L66 C58:N58 M59:N64 F74:N74 N72:N73 O2:R100 N90">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:J31">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:L47">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:J4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
